--- a/Truth Table.xlsx
+++ b/Truth Table.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22000" windowHeight="16340" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22000" windowHeight="16620" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="30">
   <si>
     <t>Op</t>
   </si>
@@ -503,8 +503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:U26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:Q15"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="T26" sqref="T26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1603,8 +1603,8 @@
       <c r="S20">
         <v>0</v>
       </c>
-      <c r="T20" t="s">
-        <v>4</v>
+      <c r="T20">
+        <v>1</v>
       </c>
       <c r="U20">
         <v>1</v>
@@ -1668,8 +1668,8 @@
       <c r="S21">
         <v>0</v>
       </c>
-      <c r="T21" t="s">
-        <v>4</v>
+      <c r="T21">
+        <v>1</v>
       </c>
       <c r="U21">
         <v>1</v>
@@ -1733,8 +1733,8 @@
       <c r="S22">
         <v>0</v>
       </c>
-      <c r="T22" t="s">
-        <v>4</v>
+      <c r="T22">
+        <v>1</v>
       </c>
       <c r="U22">
         <v>1</v>
@@ -1798,8 +1798,8 @@
       <c r="S23">
         <v>0</v>
       </c>
-      <c r="T23" t="s">
-        <v>4</v>
+      <c r="T23">
+        <v>0</v>
       </c>
       <c r="U23">
         <v>1</v>
@@ -1863,8 +1863,8 @@
       <c r="S24">
         <v>0</v>
       </c>
-      <c r="T24" t="s">
-        <v>4</v>
+      <c r="T24">
+        <v>0</v>
       </c>
       <c r="U24">
         <v>1</v>
@@ -1928,8 +1928,8 @@
       <c r="S25">
         <v>0</v>
       </c>
-      <c r="T25" t="s">
-        <v>4</v>
+      <c r="T25">
+        <v>0</v>
       </c>
       <c r="U25">
         <v>1</v>

--- a/Truth Table.xlsx
+++ b/Truth Table.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22000" windowHeight="16640" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16400" windowHeight="16660" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="49">
   <si>
     <t>Op</t>
   </si>
@@ -172,7 +173,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -196,6 +197,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -214,21 +222,134 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="61">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -558,10 +679,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:W42"/>
+  <dimension ref="A2:W41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="V20" sqref="V20"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2233,9 +2354,80 @@
         <v>1</v>
       </c>
     </row>
+    <row r="27" spans="1:23">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27" t="s">
+        <v>3</v>
+      </c>
+      <c r="O27" t="s">
+        <v>3</v>
+      </c>
+      <c r="P27" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>3</v>
+      </c>
+      <c r="R27" t="s">
+        <v>3</v>
+      </c>
+      <c r="S27" t="s">
+        <v>3</v>
+      </c>
+      <c r="T27" t="s">
+        <v>3</v>
+      </c>
+      <c r="U27" t="s">
+        <v>3</v>
+      </c>
+      <c r="V27" t="s">
+        <v>3</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+    </row>
     <row r="28" spans="1:23">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -2250,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -2306,7 +2498,7 @@
     </row>
     <row r="29" spans="1:23">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -2321,28 +2513,28 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <v>1</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-      <c r="M29">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H29" t="s">
+        <v>3</v>
+      </c>
+      <c r="I29" t="s">
+        <v>3</v>
+      </c>
+      <c r="J29" t="s">
+        <v>3</v>
+      </c>
+      <c r="K29" t="s">
+        <v>3</v>
+      </c>
+      <c r="L29" t="s">
+        <v>3</v>
+      </c>
+      <c r="M29" t="s">
+        <v>3</v>
       </c>
       <c r="N29" t="s">
         <v>3</v>
@@ -2377,7 +2569,7 @@
     </row>
     <row r="30" spans="1:23">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -2392,28 +2584,28 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30">
-        <v>1</v>
-      </c>
-      <c r="H30" t="s">
-        <v>3</v>
-      </c>
-      <c r="I30" t="s">
-        <v>3</v>
-      </c>
-      <c r="J30" t="s">
-        <v>3</v>
-      </c>
-      <c r="K30" t="s">
-        <v>3</v>
-      </c>
-      <c r="L30" t="s">
-        <v>3</v>
-      </c>
-      <c r="M30" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
       </c>
       <c r="N30" t="s">
         <v>3</v>
@@ -2448,7 +2640,7 @@
     </row>
     <row r="31" spans="1:23">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -2460,7 +2652,7 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -2468,23 +2660,23 @@
       <c r="G31">
         <v>0</v>
       </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <v>1</v>
-      </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
-      <c r="L31">
-        <v>0</v>
-      </c>
-      <c r="M31">
-        <v>1</v>
+      <c r="H31" t="s">
+        <v>3</v>
+      </c>
+      <c r="I31" t="s">
+        <v>3</v>
+      </c>
+      <c r="J31" t="s">
+        <v>3</v>
+      </c>
+      <c r="K31" t="s">
+        <v>3</v>
+      </c>
+      <c r="L31" t="s">
+        <v>3</v>
+      </c>
+      <c r="M31" t="s">
+        <v>3</v>
       </c>
       <c r="N31" t="s">
         <v>3</v>
@@ -2519,7 +2711,7 @@
     </row>
     <row r="32" spans="1:23">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -2537,7 +2729,7 @@
         <v>0</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32" t="s">
         <v>3</v>
@@ -2590,7 +2782,7 @@
     </row>
     <row r="33" spans="1:23">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -2605,10 +2797,10 @@
         <v>1</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33" t="s">
         <v>3</v>
@@ -2661,7 +2853,7 @@
     </row>
     <row r="34" spans="1:23">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -2679,7 +2871,7 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" t="s">
         <v>3</v>
@@ -2732,7 +2924,7 @@
     </row>
     <row r="35" spans="1:23">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -2744,10 +2936,10 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -2803,7 +2995,7 @@
     </row>
     <row r="36" spans="1:23">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -2874,10 +3066,10 @@
     </row>
     <row r="37" spans="1:23">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -2889,7 +3081,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -2945,7 +3137,7 @@
     </row>
     <row r="38" spans="1:23">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -2960,10 +3152,10 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38" t="s">
         <v>3</v>
@@ -3016,7 +3208,7 @@
     </row>
     <row r="39" spans="1:23">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -3028,7 +3220,7 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -3087,7 +3279,7 @@
     </row>
     <row r="40" spans="1:23">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -3096,16 +3288,16 @@
         <v>0</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40" t="s">
         <v>3</v>
@@ -3158,7 +3350,7 @@
     </row>
     <row r="41" spans="1:23">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -3173,10 +3365,10 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41" t="s">
         <v>3</v>
@@ -3227,76 +3419,2727 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:23">
-      <c r="A42" t="s">
-        <v>43</v>
-      </c>
-      <c r="B42">
-        <v>1</v>
-      </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-      <c r="H42" t="s">
-        <v>3</v>
-      </c>
-      <c r="I42" t="s">
-        <v>3</v>
-      </c>
-      <c r="J42" t="s">
-        <v>3</v>
-      </c>
-      <c r="K42" t="s">
-        <v>3</v>
-      </c>
-      <c r="L42" t="s">
-        <v>3</v>
-      </c>
-      <c r="M42" t="s">
-        <v>3</v>
-      </c>
-      <c r="N42" t="s">
-        <v>3</v>
-      </c>
-      <c r="O42" t="s">
-        <v>3</v>
-      </c>
-      <c r="P42" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>3</v>
-      </c>
-      <c r="R42" t="s">
-        <v>3</v>
-      </c>
-      <c r="S42" t="s">
-        <v>3</v>
-      </c>
-      <c r="T42" t="s">
-        <v>3</v>
-      </c>
-      <c r="U42" t="s">
-        <v>3</v>
-      </c>
-      <c r="V42" t="s">
-        <v>3</v>
-      </c>
-      <c r="W42">
-        <v>0</v>
-      </c>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:23">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1">
+        <v>0</v>
+      </c>
+      <c r="H1" s="1">
+        <v>0</v>
+      </c>
+      <c r="I1" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1" s="1">
+        <v>0</v>
+      </c>
+      <c r="K1" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1" s="1">
+        <v>1</v>
+      </c>
+      <c r="M1" s="1">
+        <v>0</v>
+      </c>
+      <c r="N1">
+        <v>1</v>
+      </c>
+      <c r="O1">
+        <v>0</v>
+      </c>
+      <c r="P1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q1">
+        <v>0</v>
+      </c>
+      <c r="R1">
+        <v>0</v>
+      </c>
+      <c r="S1">
+        <v>0</v>
+      </c>
+      <c r="T1">
+        <v>0</v>
+      </c>
+      <c r="U1">
+        <v>1</v>
+      </c>
+      <c r="V1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>1</v>
+      </c>
+      <c r="V2" t="s">
+        <v>3</v>
+      </c>
+      <c r="W2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
+        <v>1</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1</v>
+      </c>
+      <c r="K4" s="1">
+        <v>1</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>1</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>1</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>1</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6" t="s">
+        <v>3</v>
+      </c>
+      <c r="T6" t="s">
+        <v>3</v>
+      </c>
+      <c r="U6" t="s">
+        <v>3</v>
+      </c>
+      <c r="V6" t="s">
+        <v>3</v>
+      </c>
+      <c r="W6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7" t="s">
+        <v>3</v>
+      </c>
+      <c r="T7" t="s">
+        <v>3</v>
+      </c>
+      <c r="U7" t="s">
+        <v>3</v>
+      </c>
+      <c r="V7" t="s">
+        <v>3</v>
+      </c>
+      <c r="W7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>1</v>
+      </c>
+      <c r="V8" t="s">
+        <v>3</v>
+      </c>
+      <c r="W8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>1</v>
+      </c>
+      <c r="U9">
+        <v>1</v>
+      </c>
+      <c r="V9" t="s">
+        <v>3</v>
+      </c>
+      <c r="W9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>1</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>1</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>1</v>
+      </c>
+      <c r="T12">
+        <v>1</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0</v>
+      </c>
+      <c r="L13" s="1">
+        <v>0</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>1</v>
+      </c>
+      <c r="T13">
+        <v>1</v>
+      </c>
+      <c r="U13">
+        <v>1</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14" t="s">
+        <v>3</v>
+      </c>
+      <c r="T14" t="s">
+        <v>3</v>
+      </c>
+      <c r="U14" t="s">
+        <v>3</v>
+      </c>
+      <c r="V14" t="s">
+        <v>3</v>
+      </c>
+      <c r="W14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+      <c r="R15">
+        <v>1</v>
+      </c>
+      <c r="S15" t="s">
+        <v>3</v>
+      </c>
+      <c r="T15" t="s">
+        <v>3</v>
+      </c>
+      <c r="U15" t="s">
+        <v>3</v>
+      </c>
+      <c r="V15" t="s">
+        <v>3</v>
+      </c>
+      <c r="W15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q16">
+        <v>1</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16" t="s">
+        <v>3</v>
+      </c>
+      <c r="T16" t="s">
+        <v>3</v>
+      </c>
+      <c r="U16" t="s">
+        <v>3</v>
+      </c>
+      <c r="V16" t="s">
+        <v>3</v>
+      </c>
+      <c r="W16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17" t="s">
+        <v>3</v>
+      </c>
+      <c r="T17" t="s">
+        <v>3</v>
+      </c>
+      <c r="U17" t="s">
+        <v>3</v>
+      </c>
+      <c r="V17" t="s">
+        <v>3</v>
+      </c>
+      <c r="W17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18" t="s">
+        <v>3</v>
+      </c>
+      <c r="W18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
+      <c r="A19">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0</v>
+      </c>
+      <c r="L19" s="1">
+        <v>0</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>1</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>1</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0</v>
+      </c>
+      <c r="L20" s="1">
+        <v>0</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>1</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>1</v>
+      </c>
+      <c r="W20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0</v>
+      </c>
+      <c r="L21" s="1">
+        <v>0</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21" t="s">
+        <v>3</v>
+      </c>
+      <c r="W21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0</v>
+      </c>
+      <c r="L22" s="1">
+        <v>0</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>1</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1">
+        <v>1</v>
+      </c>
+      <c r="J23" s="1">
+        <v>1</v>
+      </c>
+      <c r="K23" s="1">
+        <v>1</v>
+      </c>
+      <c r="L23" s="1">
+        <v>1</v>
+      </c>
+      <c r="M23" s="1">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>1</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>1</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>1</v>
+      </c>
+      <c r="W23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0</v>
+      </c>
+      <c r="K24" s="1">
+        <v>1</v>
+      </c>
+      <c r="L24" s="1">
+        <v>0</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N24" t="s">
+        <v>3</v>
+      </c>
+      <c r="O24" t="s">
+        <v>3</v>
+      </c>
+      <c r="P24" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>3</v>
+      </c>
+      <c r="R24" t="s">
+        <v>3</v>
+      </c>
+      <c r="S24" t="s">
+        <v>3</v>
+      </c>
+      <c r="T24" t="s">
+        <v>3</v>
+      </c>
+      <c r="U24" t="s">
+        <v>3</v>
+      </c>
+      <c r="V24" t="s">
+        <v>3</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0</v>
+      </c>
+      <c r="L25" s="1">
+        <v>0</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s">
+        <v>3</v>
+      </c>
+      <c r="O25" t="s">
+        <v>3</v>
+      </c>
+      <c r="P25" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>3</v>
+      </c>
+      <c r="R25" t="s">
+        <v>3</v>
+      </c>
+      <c r="S25" t="s">
+        <v>3</v>
+      </c>
+      <c r="T25" t="s">
+        <v>3</v>
+      </c>
+      <c r="U25" t="s">
+        <v>3</v>
+      </c>
+      <c r="V25" t="s">
+        <v>3</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" t="s">
+        <v>3</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0</v>
+      </c>
+      <c r="J26" s="1">
+        <v>0</v>
+      </c>
+      <c r="K26" s="1">
+        <v>1</v>
+      </c>
+      <c r="L26" s="1">
+        <v>1</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" t="s">
+        <v>3</v>
+      </c>
+      <c r="O26" t="s">
+        <v>3</v>
+      </c>
+      <c r="P26" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>3</v>
+      </c>
+      <c r="R26" t="s">
+        <v>3</v>
+      </c>
+      <c r="S26" t="s">
+        <v>3</v>
+      </c>
+      <c r="T26" t="s">
+        <v>3</v>
+      </c>
+      <c r="U26" t="s">
+        <v>3</v>
+      </c>
+      <c r="V26" t="s">
+        <v>3</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27">
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0</v>
+      </c>
+      <c r="J27" s="1">
+        <v>0</v>
+      </c>
+      <c r="K27" s="1">
+        <v>0</v>
+      </c>
+      <c r="L27" s="1">
+        <v>0</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" t="s">
+        <v>3</v>
+      </c>
+      <c r="O27" t="s">
+        <v>3</v>
+      </c>
+      <c r="P27" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>3</v>
+      </c>
+      <c r="R27" t="s">
+        <v>3</v>
+      </c>
+      <c r="S27" t="s">
+        <v>3</v>
+      </c>
+      <c r="T27" t="s">
+        <v>3</v>
+      </c>
+      <c r="U27" t="s">
+        <v>3</v>
+      </c>
+      <c r="V27" t="s">
+        <v>3</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" t="s">
+        <v>3</v>
+      </c>
+      <c r="F28" t="s">
+        <v>3</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0</v>
+      </c>
+      <c r="J28" s="1">
+        <v>1</v>
+      </c>
+      <c r="K28" s="1">
+        <v>0</v>
+      </c>
+      <c r="L28" s="1">
+        <v>0</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N28" t="s">
+        <v>3</v>
+      </c>
+      <c r="O28" t="s">
+        <v>3</v>
+      </c>
+      <c r="P28" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>3</v>
+      </c>
+      <c r="R28" t="s">
+        <v>3</v>
+      </c>
+      <c r="S28" t="s">
+        <v>3</v>
+      </c>
+      <c r="T28" t="s">
+        <v>3</v>
+      </c>
+      <c r="U28" t="s">
+        <v>3</v>
+      </c>
+      <c r="V28" t="s">
+        <v>3</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0</v>
+      </c>
+      <c r="J29" s="1">
+        <v>1</v>
+      </c>
+      <c r="K29" s="1">
+        <v>0</v>
+      </c>
+      <c r="L29" s="1">
+        <v>1</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N29" t="s">
+        <v>3</v>
+      </c>
+      <c r="O29" t="s">
+        <v>3</v>
+      </c>
+      <c r="P29" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>3</v>
+      </c>
+      <c r="R29" t="s">
+        <v>3</v>
+      </c>
+      <c r="S29" t="s">
+        <v>3</v>
+      </c>
+      <c r="T29" t="s">
+        <v>3</v>
+      </c>
+      <c r="U29" t="s">
+        <v>3</v>
+      </c>
+      <c r="V29" t="s">
+        <v>3</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" t="s">
+        <v>3</v>
+      </c>
+      <c r="F30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0</v>
+      </c>
+      <c r="I30" s="1">
+        <v>0</v>
+      </c>
+      <c r="J30" s="1">
+        <v>1</v>
+      </c>
+      <c r="K30" s="1">
+        <v>1</v>
+      </c>
+      <c r="L30" s="1">
+        <v>0</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N30" t="s">
+        <v>3</v>
+      </c>
+      <c r="O30" t="s">
+        <v>3</v>
+      </c>
+      <c r="P30" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>3</v>
+      </c>
+      <c r="R30" t="s">
+        <v>3</v>
+      </c>
+      <c r="S30" t="s">
+        <v>3</v>
+      </c>
+      <c r="T30" t="s">
+        <v>3</v>
+      </c>
+      <c r="U30" t="s">
+        <v>3</v>
+      </c>
+      <c r="V30" t="s">
+        <v>3</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31" t="s">
+        <v>3</v>
+      </c>
+      <c r="F31" t="s">
+        <v>3</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0</v>
+      </c>
+      <c r="I31" s="1">
+        <v>0</v>
+      </c>
+      <c r="J31" s="1">
+        <v>1</v>
+      </c>
+      <c r="K31" s="1">
+        <v>1</v>
+      </c>
+      <c r="L31" s="1">
+        <v>1</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N31" t="s">
+        <v>3</v>
+      </c>
+      <c r="O31" t="s">
+        <v>3</v>
+      </c>
+      <c r="P31" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>3</v>
+      </c>
+      <c r="R31" t="s">
+        <v>3</v>
+      </c>
+      <c r="S31" t="s">
+        <v>3</v>
+      </c>
+      <c r="T31" t="s">
+        <v>3</v>
+      </c>
+      <c r="U31" t="s">
+        <v>3</v>
+      </c>
+      <c r="V31" t="s">
+        <v>3</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="A32" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" t="s">
+        <v>3</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0</v>
+      </c>
+      <c r="I32" s="1">
+        <v>0</v>
+      </c>
+      <c r="J32" s="1">
+        <v>0</v>
+      </c>
+      <c r="K32" s="1">
+        <v>0</v>
+      </c>
+      <c r="L32" s="1">
+        <v>1</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" t="s">
+        <v>3</v>
+      </c>
+      <c r="P32" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>3</v>
+      </c>
+      <c r="R32" t="s">
+        <v>3</v>
+      </c>
+      <c r="S32" t="s">
+        <v>3</v>
+      </c>
+      <c r="T32" t="s">
+        <v>3</v>
+      </c>
+      <c r="U32" t="s">
+        <v>3</v>
+      </c>
+      <c r="V32" t="s">
+        <v>3</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
+      <c r="A33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" t="s">
+        <v>3</v>
+      </c>
+      <c r="F33" t="s">
+        <v>3</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0</v>
+      </c>
+      <c r="I33" s="1">
+        <v>0</v>
+      </c>
+      <c r="J33" s="1">
+        <v>0</v>
+      </c>
+      <c r="K33" s="1">
+        <v>0</v>
+      </c>
+      <c r="L33" s="1">
+        <v>1</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33" t="s">
+        <v>3</v>
+      </c>
+      <c r="O33" t="s">
+        <v>3</v>
+      </c>
+      <c r="P33" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>3</v>
+      </c>
+      <c r="R33" t="s">
+        <v>3</v>
+      </c>
+      <c r="S33" t="s">
+        <v>3</v>
+      </c>
+      <c r="T33" t="s">
+        <v>3</v>
+      </c>
+      <c r="U33" t="s">
+        <v>3</v>
+      </c>
+      <c r="V33" t="s">
+        <v>3</v>
+      </c>
+      <c r="W33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
+      <c r="A34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34" t="s">
+        <v>3</v>
+      </c>
+      <c r="E34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F34" t="s">
+        <v>3</v>
+      </c>
+      <c r="G34" s="1">
+        <v>1</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0</v>
+      </c>
+      <c r="I34" s="1">
+        <v>0</v>
+      </c>
+      <c r="J34" s="1">
+        <v>0</v>
+      </c>
+      <c r="K34" s="1">
+        <v>1</v>
+      </c>
+      <c r="L34" s="1">
+        <v>1</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N34" t="s">
+        <v>3</v>
+      </c>
+      <c r="O34" t="s">
+        <v>3</v>
+      </c>
+      <c r="P34" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>3</v>
+      </c>
+      <c r="R34" t="s">
+        <v>3</v>
+      </c>
+      <c r="S34" t="s">
+        <v>3</v>
+      </c>
+      <c r="T34" t="s">
+        <v>3</v>
+      </c>
+      <c r="U34" t="s">
+        <v>3</v>
+      </c>
+      <c r="V34" t="s">
+        <v>3</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
+      <c r="A35" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F35" t="s">
+        <v>3</v>
+      </c>
+      <c r="G35" s="1">
+        <v>1</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0</v>
+      </c>
+      <c r="I35" s="1">
+        <v>0</v>
+      </c>
+      <c r="J35" s="1">
+        <v>0</v>
+      </c>
+      <c r="K35" s="1">
+        <v>0</v>
+      </c>
+      <c r="L35" s="1">
+        <v>0</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N35" t="s">
+        <v>3</v>
+      </c>
+      <c r="O35" t="s">
+        <v>3</v>
+      </c>
+      <c r="P35" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>3</v>
+      </c>
+      <c r="R35" t="s">
+        <v>3</v>
+      </c>
+      <c r="S35" t="s">
+        <v>3</v>
+      </c>
+      <c r="T35" t="s">
+        <v>3</v>
+      </c>
+      <c r="U35" t="s">
+        <v>3</v>
+      </c>
+      <c r="V35" t="s">
+        <v>3</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
+      <c r="A36" t="s">
+        <v>3</v>
+      </c>
+      <c r="B36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36" t="s">
+        <v>3</v>
+      </c>
+      <c r="E36" t="s">
+        <v>3</v>
+      </c>
+      <c r="F36" t="s">
+        <v>3</v>
+      </c>
+      <c r="G36" s="1">
+        <v>1</v>
+      </c>
+      <c r="H36" s="1">
+        <v>0</v>
+      </c>
+      <c r="I36" s="1">
+        <v>0</v>
+      </c>
+      <c r="J36" s="1">
+        <v>1</v>
+      </c>
+      <c r="K36" s="1">
+        <v>0</v>
+      </c>
+      <c r="L36" s="1">
+        <v>0</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N36" t="s">
+        <v>3</v>
+      </c>
+      <c r="O36" t="s">
+        <v>3</v>
+      </c>
+      <c r="P36" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>3</v>
+      </c>
+      <c r="R36" t="s">
+        <v>3</v>
+      </c>
+      <c r="S36" t="s">
+        <v>3</v>
+      </c>
+      <c r="T36" t="s">
+        <v>3</v>
+      </c>
+      <c r="U36" t="s">
+        <v>3</v>
+      </c>
+      <c r="V36" t="s">
+        <v>3</v>
+      </c>
+      <c r="W36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
+      <c r="A37" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E37" t="s">
+        <v>3</v>
+      </c>
+      <c r="F37" t="s">
+        <v>3</v>
+      </c>
+      <c r="G37" s="1">
+        <v>1</v>
+      </c>
+      <c r="H37" s="1">
+        <v>0</v>
+      </c>
+      <c r="I37" s="1">
+        <v>1</v>
+      </c>
+      <c r="J37" s="1">
+        <v>0</v>
+      </c>
+      <c r="K37" s="1">
+        <v>1</v>
+      </c>
+      <c r="L37" s="1">
+        <v>1</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N37" t="s">
+        <v>3</v>
+      </c>
+      <c r="O37" t="s">
+        <v>3</v>
+      </c>
+      <c r="P37" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>3</v>
+      </c>
+      <c r="R37" t="s">
+        <v>3</v>
+      </c>
+      <c r="S37" t="s">
+        <v>3</v>
+      </c>
+      <c r="T37" t="s">
+        <v>3</v>
+      </c>
+      <c r="U37" t="s">
+        <v>3</v>
+      </c>
+      <c r="V37" t="s">
+        <v>3</v>
+      </c>
+      <c r="W37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
+      <c r="A38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38" t="s">
+        <v>3</v>
+      </c>
+      <c r="F38" t="s">
+        <v>3</v>
+      </c>
+      <c r="G38" s="1">
+        <v>1</v>
+      </c>
+      <c r="H38" s="1">
+        <v>0</v>
+      </c>
+      <c r="I38" s="1">
+        <v>1</v>
+      </c>
+      <c r="J38" s="1">
+        <v>0</v>
+      </c>
+      <c r="K38" s="1">
+        <v>0</v>
+      </c>
+      <c r="L38" s="1">
+        <v>0</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N38" t="s">
+        <v>3</v>
+      </c>
+      <c r="O38" t="s">
+        <v>3</v>
+      </c>
+      <c r="P38" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>3</v>
+      </c>
+      <c r="R38" t="s">
+        <v>3</v>
+      </c>
+      <c r="S38" t="s">
+        <v>3</v>
+      </c>
+      <c r="T38" t="s">
+        <v>3</v>
+      </c>
+      <c r="U38" t="s">
+        <v>3</v>
+      </c>
+      <c r="V38" t="s">
+        <v>3</v>
+      </c>
+      <c r="W38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
+      <c r="M39" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
